--- a/Time-Card/OSC/OCXO Daughtercard/BOM/Rakon_RFPO45_bom.xlsx
+++ b/Time-Card/OSC/OCXO Daughtercard/BOM/Rakon_RFPO45_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianstj\Desktop\WorkNotes\Projects\PTP\Time-Appliance-Project-master\Time-Card\OSC\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F0F238-3FAE-4187-A20F-C7A154C0FBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4347AEA-5CE1-4880-A7D2-FD22913CE37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DF9E81E-BA61-48CB-80A5-814DFA5DE262}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7DF9E81E-BA61-48CB-80A5-814DFA5DE262}"/>
   </bookViews>
   <sheets>
     <sheet name="845-02232-03-RevX1_bom" sheetId="1" r:id="rId1"/>
@@ -476,9 +476,6 @@
     <t>2421846</t>
   </si>
   <si>
-    <t>R17, R18, R19, R24, R25, R26, R29, R31</t>
-  </si>
-  <si>
     <t>R27, R28</t>
   </si>
   <si>
@@ -687,6 +684,9 @@
   </si>
   <si>
     <t>SITIME_SPL-086-CQFN-010-C07050_REV_DRAFT</t>
+  </si>
+  <si>
+    <t>R17, R18, R19, R24, R25, R26, R30, R32</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA6246-E95D-4D5E-AB5E-FD43D5C7CBD3}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>99</v>
@@ -2040,16 +2040,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -2061,31 +2061,31 @@
         <v>142</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2097,10 +2097,10 @@
         <v>142</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>42</v>
@@ -2109,21 +2109,21 @@
         <v>32</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>142</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>42</v>
@@ -2147,21 +2147,21 @@
         <v>32</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>10</v>
@@ -2184,16 +2184,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2203,11 +2203,11 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>10</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2235,11 +2235,11 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>10</v>
@@ -2248,16 +2248,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2267,11 +2267,11 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>10</v>
@@ -2280,16 +2280,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2299,11 +2299,11 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>10</v>
@@ -2312,16 +2312,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>32</v>
@@ -2340,16 +2340,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2359,7 +2359,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>32</v>
@@ -2368,16 +2368,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2387,11 +2387,11 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>32</v>
@@ -2400,16 +2400,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2419,7 +2419,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>10</v>
@@ -2428,16 +2428,16 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2447,7 +2447,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>32</v>

--- a/Time-Card/OSC/OCXO Daughtercard/BOM/Rakon_RFPO45_bom.xlsx
+++ b/Time-Card/OSC/OCXO Daughtercard/BOM/Rakon_RFPO45_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianstj\Desktop\WorkNotes\Projects\PTP\Time-Appliance-Project-master\Time-Card\OSC\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4347AEA-5CE1-4880-A7D2-FD22913CE37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D0983F-A885-4300-86A2-20521A5B01C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7DF9E81E-BA61-48CB-80A5-814DFA5DE262}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="220">
   <si>
     <t>Designator</t>
   </si>
@@ -687,16 +687,36 @@
   </si>
   <si>
     <t>R17, R18, R19, R24, R25, R26, R30, R32</t>
+  </si>
+  <si>
+    <t>Alternate 1</t>
+  </si>
+  <si>
+    <t>Alternate 2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/1405-1/318164</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/1425-1/318192?s=N4IgTCBcDaIIwBYwFYC0cQF0C%2BQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -740,17 +760,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1063,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA6246-E95D-4D5E-AB5E-FD43D5C7CBD3}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,9 +1113,11 @@
     <col min="9" max="9" width="17.36328125" customWidth="1"/>
     <col min="10" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="34.54296875" customWidth="1"/>
+    <col min="13" max="13" width="21.08984375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="22.36328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1154,14 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1193,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1186,7 +1225,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1218,7 +1257,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1250,7 +1289,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1282,7 +1321,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1314,7 +1353,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1346,7 +1385,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1384,7 +1423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1414,7 +1453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1446,7 +1485,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -1476,7 +1515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -1508,7 +1547,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
@@ -1540,7 +1579,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
@@ -1572,7 +1611,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
@@ -1603,6 +1642,12 @@
         <v>10</v>
       </c>
       <c r="L16" s="1"/>
+      <c r="M16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -2455,7 +2500,11 @@
       <c r="L42" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M16" r:id="rId1" xr:uid="{43B747DB-8D71-49DD-8A27-41E01E6FC331}"/>
+    <hyperlink ref="N16" r:id="rId2" xr:uid="{1B0E822B-7F26-4FBB-BC11-2DEAF2DB547C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>